--- a/database/industries/kashi/kehafez/cost/yearly.xlsx
+++ b/database/industries/kashi/kehafez/cost/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\kashi\kehafez\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\kashi\kehafez\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D66F90E-3E6D-461E-B242-36CB12A8B4CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A22004-20DD-4089-B4EA-644C67557A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -650,12 +650,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -665,7 +665,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -677,7 +677,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -689,7 +689,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -699,7 +699,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -711,7 +711,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -723,7 +723,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -733,7 +733,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -755,7 +755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -765,7 +765,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
@@ -787,7 +787,7 @@
         <v>1432336</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
@@ -809,7 +809,7 @@
         <v>261808</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
@@ -831,7 +831,7 @@
         <v>1065934</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
@@ -853,7 +853,7 @@
         <v>2760078</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
@@ -875,7 +875,7 @@
         <v>-81815</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
@@ -897,7 +897,7 @@
         <v>2678263</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
@@ -919,7 +919,7 @@
         <v>-3514</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
@@ -963,7 +963,7 @@
         <v>2674749</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
@@ -985,7 +985,7 @@
         <v>5285</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>-161657</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>2518377</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>28314</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>2546691</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1083,7 +1083,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1093,7 +1093,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1103,7 +1103,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1135,7 +1135,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>720007</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>27</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>29</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>30</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>80340</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>31</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>977687</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>12</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>1778666</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1287,7 +1287,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1297,7 +1297,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1307,7 +1307,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
         <v>32</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1339,7 +1339,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>24</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>3751033</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>27</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>29</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>2906</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>30</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>195042</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>31</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>5505526</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="12" t="s">
         <v>12</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>9454525</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1491,7 +1491,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1501,7 +1501,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1511,7 +1511,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B49" s="7" t="s">
         <v>33</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1543,7 +1543,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>24</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>3495655</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>27</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>29</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>2783</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>30</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>138728</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>31</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>4402809</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
         <v>12</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>8039986</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1695,7 +1695,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1705,7 +1705,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1715,7 +1715,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B60" s="7" t="s">
         <v>34</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1747,7 +1747,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>24</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>975385</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>27</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>29</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>30</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>136654</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>31</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>2080404</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="12" t="s">
         <v>12</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>3193205</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1899,7 +1899,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1909,7 +1909,7 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1919,7 +1919,7 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B71" s="7" t="s">
         <v>35</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1951,7 +1951,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>24</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>25562</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>27</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>20756</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>29</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>67228</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>30</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>160443</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>31</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>74718</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="12" t="s">
         <v>12</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>348707</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2103,7 +2103,7 @@
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2113,7 +2113,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2123,7 +2123,7 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B82" s="7" t="s">
         <v>37</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2155,7 +2155,7 @@
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
         <v>24</v>
       </c>
@@ -2179,7 +2179,7 @@
         <v>227424</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>27</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>97307</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="8" t="s">
         <v>29</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>340200</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
         <v>30</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>831867</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="8" t="s">
         <v>31</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v>538761</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="12" t="s">
         <v>12</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>2035559</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2307,7 +2307,7 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2317,7 +2317,7 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2327,7 +2327,7 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B93" s="7" t="s">
         <v>38</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2359,7 +2359,7 @@
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="8" t="s">
         <v>24</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>199495</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
         <v>27</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>61472</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>29</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>323391</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
         <v>30</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>431359</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>31</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>416619</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="12" t="s">
         <v>12</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>1432336</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -2511,7 +2511,7 @@
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2521,7 +2521,7 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2531,7 +2531,7 @@
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B104" s="7" t="s">
         <v>39</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -2563,7 +2563,7 @@
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="8" t="s">
         <v>24</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>53491</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
         <v>27</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>56591</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="8" t="s">
         <v>29</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>84037</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="10" t="s">
         <v>30</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>560951</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="8" t="s">
         <v>31</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>196860</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="12" t="s">
         <v>12</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>951930</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2715,7 +2715,7 @@
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -2725,7 +2725,7 @@
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -2735,7 +2735,7 @@
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B115" s="7" t="s">
         <v>40</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2767,7 +2767,7 @@
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>24</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>35502</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>27</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>2306222222</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
         <v>29</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>107910112</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
         <v>30</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>1997050</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="8" t="s">
         <v>31</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>76423</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -2897,7 +2897,7 @@
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -2907,7 +2907,7 @@
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -2917,7 +2917,7 @@
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
     </row>
-    <row r="125" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B125" s="7" t="s">
         <v>43</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -2949,7 +2949,7 @@
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>24</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>60630</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
         <v>27</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>5405944444</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
         <v>29</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>117068135</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
         <v>30</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>4265066</v>
       </c>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B131" s="8" t="s">
         <v>31</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>97858</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -3079,7 +3079,7 @@
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -3089,7 +3089,7 @@
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -3099,7 +3099,7 @@
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
     </row>
-    <row r="135" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B135" s="7" t="s">
         <v>44</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -3131,7 +3131,7 @@
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>24</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>57069</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
         <v>27</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v>5588363636</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B139" s="8" t="s">
         <v>29</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>116202300</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B140" s="10" t="s">
         <v>30</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>3109387</v>
       </c>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
         <v>31</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>94626</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -3261,7 +3261,7 @@
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -3271,7 +3271,7 @@
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -3281,7 +3281,7 @@
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
     </row>
-    <row r="145" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B145" s="7" t="s">
         <v>45</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -3313,7 +3313,7 @@
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B147" s="8" t="s">
         <v>24</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>54841</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B148" s="10" t="s">
         <v>27</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>3536937500</v>
       </c>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B149" s="8" t="s">
         <v>29</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>112650134</v>
       </c>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B150" s="10" t="s">
         <v>30</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>4104900</v>
       </c>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B151" s="8" t="s">
         <v>31</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>94626</v>
       </c>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -3443,7 +3443,7 @@
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -3453,7 +3453,7 @@
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -3463,7 +3463,7 @@
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
     </row>
-    <row r="155" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B155" s="7" t="s">
         <v>46</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -3495,7 +3495,7 @@
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B157" s="8" t="s">
         <v>47</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B158" s="10" t="s">
         <v>48</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B159" s="8" t="s">
         <v>49</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B160" s="10" t="s">
         <v>50</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B161" s="8" t="s">
         <v>51</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>61855</v>
       </c>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B162" s="10" t="s">
         <v>52</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>158639</v>
       </c>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B163" s="8" t="s">
         <v>53</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>101458</v>
       </c>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B164" s="10" t="s">
         <v>54</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>286389</v>
       </c>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B165" s="8" t="s">
         <v>55</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B166" s="10" t="s">
         <v>56</v>
       </c>
@@ -3715,7 +3715,7 @@
         <v>457593</v>
       </c>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B167" s="14" t="s">
         <v>12</v>
       </c>
